--- a/import/pop_municipal_subprov_areas.xlsx
+++ b/import/pop_municipal_subprov_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836F0D3A-2810-1545-98D0-29FFAD0B3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0E353-EF25-CB48-85CE-D879933D66BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8880" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Area Type</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>23000</t>
   </si>
   <si>
@@ -1314,6 +1311,9 @@
   </si>
   <si>
     <t xml:space="preserve">     Unincorporated Areas (Comox)</t>
+  </si>
+  <si>
+    <t>Population2023</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,18 +1782,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>35891</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11">
         <v>19496</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="11">
         <v>2649</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="11">
         <v>2338</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="11">
         <v>11408</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
         <v>39370</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="11">
         <v>2005</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="11">
         <v>1455</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11">
         <v>946</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="11">
         <v>337</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="11">
         <v>3182</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="11">
         <v>5622</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11">
         <v>1545</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="11">
         <v>4543</v>
@@ -1989,13 +1989,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="11">
         <v>19735</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
         <v>453425</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11">
         <v>18369</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="11">
         <v>21403</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="11">
         <v>19017</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="11">
         <v>2894</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="11">
         <v>55069</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="11">
         <v>5295</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="11">
         <v>13228</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="11">
         <v>18888</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="11">
         <v>125380</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="11">
         <v>13151</v>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="11">
         <v>16795</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11">
         <v>100505</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="11">
         <v>12584</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D33" s="11">
         <v>30847</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
         <v>66291</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="C36" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="11">
         <v>2009</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C37" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="11">
         <v>10070</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="C38" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="11">
         <v>229</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="C39" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="11">
         <v>11422</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D40" s="11">
         <v>42561</v>
@@ -2315,13 +2315,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="7">
         <v>3850</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D43" s="11">
         <v>3850</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
         <v>67129</v>
@@ -2363,13 +2363,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C46" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="11">
         <v>9084</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="C47" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="11">
         <v>6002</v>
@@ -2391,13 +2391,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="C48" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="11">
         <v>1122</v>
@@ -2405,13 +2405,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="C49" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="11">
         <v>1708</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="C50" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="11">
         <v>11931</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C51" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="11">
         <v>516</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="C52" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="11">
         <v>1305</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="C53" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="11">
         <v>192</v>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="C54" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="11">
         <v>407</v>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D55" s="11">
         <v>34862</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="7">
         <v>246789</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="C58" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="11">
         <v>161166</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="C59" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="11">
         <v>17539</v>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="C60" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="12">
         <v>6139</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="C61" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="11">
         <v>39853</v>
@@ -2579,13 +2579,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D62" s="11">
         <v>22092</v>
@@ -2599,13 +2599,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" s="7">
         <v>61505</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="C65" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="11">
         <v>4363</v>
@@ -2627,13 +2627,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="C66" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="11">
         <v>9032</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="C67" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="11">
         <v>20583</v>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="C68" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="11">
         <v>2809</v>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="D69" s="11">
         <v>24718</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="7">
         <v>129382</v>
@@ -2703,13 +2703,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="C72" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="12">
         <v>15607</v>
@@ -2717,13 +2717,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="C73" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" s="12">
         <v>31042</v>
@@ -2731,13 +2731,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="C74" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="12">
         <v>4805</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="11">
         <v>26252</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>380</v>
-      </c>
       <c r="C76" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="12">
         <v>38259</v>
@@ -2773,13 +2773,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="C77" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="12">
         <v>1315</v>
@@ -2787,13 +2787,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="C78" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" s="12">
         <v>367</v>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>386</v>
-      </c>
       <c r="C79" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="12">
         <v>385</v>
@@ -2815,13 +2815,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>388</v>
-      </c>
       <c r="C80" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="11">
         <v>135</v>
@@ -2829,13 +2829,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" s="11">
         <v>11215</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C83" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" s="7">
         <v>94941</v>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="C84" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="11">
         <v>5475</v>
@@ -2877,13 +2877,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="C85" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11">
         <v>9662</v>
@@ -2891,13 +2891,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="C86" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="11">
         <v>3689</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="C87" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="11">
         <v>33873</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D88" s="11">
         <v>42242</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="C90" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" s="7">
         <v>70741</v>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="C91" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="11">
         <v>860</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C92" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" s="11">
         <v>22053</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="C93" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="11">
         <v>2942</v>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C94" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" s="11">
         <v>6780</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="C95" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="11">
         <v>4159</v>
@@ -3023,13 +3023,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="C96" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="11">
         <v>8804</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="C97" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D97" s="11">
         <v>1443</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="C98" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" s="11">
         <v>4450</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D99" s="11">
         <v>19250</v>
@@ -3085,13 +3085,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" s="7">
         <v>353301</v>
@@ -3099,13 +3099,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="C102" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="11">
         <v>166842</v>
@@ -3113,13 +3113,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="C103" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" s="11">
         <v>101862</v>
@@ -3127,13 +3127,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="C104" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="11">
         <v>2029</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="C105" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" s="11">
         <v>7159</v>
@@ -3155,13 +3155,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="C106" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="11">
         <v>7006</v>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="C107" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="11">
         <v>45556</v>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D108" s="11">
         <v>22847</v>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C110" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110" s="7">
         <v>104141</v>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>182</v>
-      </c>
       <c r="C111" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" s="11">
         <v>3376</v>
@@ -3231,13 +3231,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="C112" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="11">
         <v>625</v>
@@ -3245,13 +3245,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="C113" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" s="11">
         <v>82637</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="C114" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" s="11">
         <v>1144</v>
@@ -3273,13 +3273,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D115" s="11">
         <v>16359</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C117" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117" s="7">
         <v>40558</v>
@@ -3307,13 +3307,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="C118" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D118" s="11">
         <v>309</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="C119" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="11">
         <v>8864</v>
@@ -3335,13 +3335,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="C120" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" s="11">
         <v>643</v>
@@ -3349,13 +3349,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="C121" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="11">
         <v>551</v>
@@ -3363,13 +3363,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="C122" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" s="11">
         <v>12959</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D123" s="11">
         <v>17232</v>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="C125" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D125" s="7">
         <v>35189</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="C126" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D126" s="11">
         <v>2063</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="C127" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" s="11">
         <v>4288</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="C128" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" s="11">
         <v>729</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B129" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="C129" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" s="11">
         <v>690</v>
@@ -3467,13 +3467,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="C130" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D130" s="11">
         <v>1071</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="C131" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" s="11">
         <v>4311</v>
@@ -3495,13 +3495,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="C132" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" s="11">
         <v>8286</v>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="C133" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D133" s="11">
         <v>1814</v>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D134" s="11">
         <v>11937</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D136" s="7">
         <v>2971064</v>
@@ -3557,13 +3557,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>225</v>
-      </c>
       <c r="C137" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" s="11">
         <v>2606</v>
@@ -3571,13 +3571,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="C138" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D138" s="11">
         <v>712</v>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="D139" s="11">
         <v>4506</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="C140" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" s="11">
         <v>283593</v>
@@ -3613,13 +3613,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="C141" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="11">
         <v>166584</v>
@@ -3627,13 +3627,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="C142" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142" s="11">
         <v>120049</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="C143" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" s="11">
         <v>33634</v>
@@ -3655,13 +3655,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="C144" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" s="11">
         <v>154099</v>
@@ -3669,13 +3669,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>242</v>
-      </c>
       <c r="C145" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145" s="11">
         <v>1473</v>
@@ -3683,13 +3683,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="C146" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D146" s="11">
         <v>102414</v>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="C147" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="11">
         <v>88408</v>
@@ -3711,13 +3711,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>248</v>
-      </c>
       <c r="C148" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148" s="11">
         <v>64739</v>
@@ -3725,13 +3725,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="C149" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" s="11">
         <v>96857</v>
@@ -3739,13 +3739,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>252</v>
-      </c>
       <c r="C150" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150" s="11">
         <v>20939</v>
@@ -3753,13 +3753,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="C151" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D151" s="11">
         <v>66974</v>
@@ -3767,13 +3767,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="C152" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D152" s="11">
         <v>37676</v>
@@ -3781,13 +3781,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>258</v>
-      </c>
       <c r="C153" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153" s="11">
         <v>235093</v>
@@ -3795,13 +3795,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="C154" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" s="11">
         <v>653039</v>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="C155" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D155" s="11">
         <v>732581</v>
@@ -3823,13 +3823,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="C156" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D156" s="11">
         <v>47396</v>
@@ -3837,13 +3837,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="C157" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157" s="11">
         <v>24292</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D158" s="11">
         <v>33400</v>
@@ -3871,13 +3871,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="C160" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D160" s="7">
         <v>11425</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>271</v>
-      </c>
       <c r="C161" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D161" s="11">
         <v>470</v>
@@ -3899,13 +3899,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="C162" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D162" s="11">
         <v>761</v>
@@ -3913,13 +3913,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>275</v>
-      </c>
       <c r="C163" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D163" s="11">
         <v>4276</v>
@@ -3927,13 +3927,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="C164" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D164" s="11">
         <v>2373</v>
@@ -3941,13 +3941,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D165" s="11">
         <v>3545</v>
@@ -3961,13 +3961,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="C167" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167" s="7">
         <v>183039</v>
@@ -3975,13 +3975,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>282</v>
-      </c>
       <c r="C168" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D168" s="11">
         <v>4197</v>
@@ -3989,13 +3989,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>284</v>
-      </c>
       <c r="C169" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169" s="11">
         <v>108277</v>
@@ -4003,13 +4003,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="C170" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170" s="11">
         <v>14497</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>288</v>
-      </c>
       <c r="C171" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D171" s="11">
         <v>9599</v>
@@ -4031,13 +4031,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B172" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D172" s="11">
         <v>46469</v>
@@ -4051,13 +4051,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="C174" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174" s="7">
         <v>19133</v>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>293</v>
-      </c>
       <c r="C175" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D175" s="11">
         <v>997</v>
@@ -4079,13 +4079,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B176" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B176" s="9" t="s">
-        <v>295</v>
-      </c>
       <c r="C176" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" s="11">
         <v>940</v>
@@ -4093,13 +4093,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="C177" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D177" s="11">
         <v>355</v>
@@ -4107,13 +4107,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="C178" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D178" s="11">
         <v>485</v>
@@ -4121,13 +4121,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>301</v>
-      </c>
       <c r="C179" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D179" s="11">
         <v>12883</v>
@@ -4135,13 +4135,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B180" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D180" s="11">
         <v>3473</v>
@@ -4155,13 +4155,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="C182" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D182" s="7">
         <v>98529</v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="C183" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" s="11">
         <v>5711</v>
@@ -4183,13 +4183,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B184" s="9" t="s">
-        <v>308</v>
-      </c>
       <c r="C184" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D184" s="11">
         <v>11552</v>
@@ -4197,13 +4197,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="C185" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D185" s="11">
         <v>3247</v>
@@ -4211,13 +4211,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="C186" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D186" s="11">
         <v>2225</v>
@@ -4225,13 +4225,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>314</v>
-      </c>
       <c r="C187" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="11">
         <v>5798</v>
@@ -4239,13 +4239,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B188" s="9" t="s">
-        <v>316</v>
-      </c>
       <c r="C188" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D188" s="11">
         <v>48087</v>
@@ -4253,13 +4253,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B189" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D189" s="11">
         <v>21909</v>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="C191" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191" s="7">
         <v>4632</v>
@@ -4287,13 +4287,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="C192" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>322</v>
       </c>
       <c r="D192" s="11">
         <v>4079</v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B193" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D193" s="11">
         <v>553</v>
@@ -4321,13 +4321,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B195" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="C195" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D195" s="7">
         <v>94533</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>327</v>
-      </c>
       <c r="C196" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" s="11">
         <v>1720</v>
@@ -4349,13 +4349,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="C197" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D197" s="11">
         <v>5303</v>
@@ -4363,13 +4363,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>331</v>
-      </c>
       <c r="C198" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198" s="11">
         <v>5763</v>
@@ -4377,13 +4377,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>333</v>
-      </c>
       <c r="C199" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D199" s="11">
         <v>38651</v>
@@ -4391,13 +4391,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="C200" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D200" s="11">
         <v>3051</v>
@@ -4405,13 +4405,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>337</v>
-      </c>
       <c r="C201" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D201" s="11">
         <v>12620</v>
@@ -4419,13 +4419,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B202" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D202" s="11">
         <v>27425</v>
@@ -4439,13 +4439,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="C204" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204" s="7">
         <v>65487</v>
@@ -4453,13 +4453,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>342</v>
-      </c>
       <c r="C205" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D205" s="11">
         <v>2404</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B206" s="9" t="s">
-        <v>344</v>
-      </c>
       <c r="C206" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D206" s="11">
         <v>13013</v>
@@ -4481,13 +4481,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="C207" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207" s="11">
         <v>23661</v>
@@ -4495,13 +4495,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>348</v>
-      </c>
       <c r="C208" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D208" s="11">
         <v>986</v>
@@ -4509,13 +4509,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="C209" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D209" s="11">
         <v>787</v>
@@ -4523,13 +4523,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="C210" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D210" s="11">
         <v>1370</v>
@@ -4537,13 +4537,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>354</v>
-      </c>
       <c r="C211" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D211" s="11">
         <v>2613</v>
@@ -4551,13 +4551,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B212" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D212" s="11">
         <v>20653</v>
@@ -4571,13 +4571,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B214" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="C214" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D214" s="7">
         <v>22768</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>359</v>
-      </c>
       <c r="C215" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D215" s="11">
         <v>14776</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="C216" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>362</v>
       </c>
       <c r="D216" s="11">
         <v>21</v>
@@ -4613,13 +4613,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B217" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C217" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="D217" s="11">
         <v>7971</v>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>365</v>
-      </c>
       <c r="C219" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219" s="7">
         <v>54923</v>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>367</v>
-      </c>
       <c r="C220" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D220" s="11">
         <v>2226</v>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B221" s="9" t="s">
-        <v>369</v>
-      </c>
       <c r="C221" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D221" s="11">
         <v>3666</v>
@@ -4675,13 +4675,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="C222" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D222" s="11">
         <v>25581</v>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B223" s="9" t="s">
-        <v>373</v>
-      </c>
       <c r="C223" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D223" s="11">
         <v>16063</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B224" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D224" s="11">
         <v>7387</v>
@@ -4723,13 +4723,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="C226" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="D226" s="7">
         <v>779</v>
@@ -4737,13 +4737,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D227" s="11">
         <v>779</v>
@@ -4757,13 +4757,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="C229" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D229" s="7">
         <v>34104</v>
@@ -4771,13 +4771,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B230" s="9" t="s">
-        <v>393</v>
-      </c>
       <c r="C230" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D230" s="11">
         <v>5110</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B231" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B231" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="C231" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D231" s="11">
         <v>11045</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>397</v>
-      </c>
       <c r="C232" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D232" s="11">
         <v>806</v>
@@ -4813,13 +4813,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D233" s="11">
         <v>17143</v>
@@ -4833,13 +4833,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="C235" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D235" s="7">
         <v>156094</v>
@@ -4847,13 +4847,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B236" s="9" t="s">
-        <v>402</v>
-      </c>
       <c r="C236" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D236" s="11">
         <v>1851</v>
@@ -4861,13 +4861,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B237" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="C237" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D237" s="11">
         <v>1898</v>
@@ -4875,13 +4875,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B238" s="9" t="s">
-        <v>406</v>
-      </c>
       <c r="C238" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D238" s="12">
         <v>1044</v>
@@ -4889,13 +4889,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="C239" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D239" s="11">
         <v>2571</v>
@@ -4903,13 +4903,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B240" s="9" t="s">
-        <v>410</v>
-      </c>
       <c r="C240" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D240" s="11">
         <v>2604</v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B241" s="9" t="s">
-        <v>412</v>
-      </c>
       <c r="C241" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D241" s="11">
         <v>727</v>
@@ -4931,13 +4931,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B242" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="B242" s="9" t="s">
-        <v>414</v>
-      </c>
       <c r="C242" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D242" s="11">
         <v>106974</v>
@@ -4945,13 +4945,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B243" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="C243" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D243" s="11">
         <v>2381</v>
@@ -4959,13 +4959,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B244" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B244" s="9" t="s">
-        <v>418</v>
-      </c>
       <c r="C244" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D244" s="12">
         <v>226</v>
@@ -4973,13 +4973,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B245" s="9" t="s">
-        <v>420</v>
-      </c>
       <c r="C245" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D245" s="11">
         <v>7415</v>
@@ -4987,13 +4987,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>422</v>
-      </c>
       <c r="C246" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D246" s="11">
         <v>1533</v>
@@ -5001,13 +5001,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D247" s="11">
         <v>26870</v>

--- a/import/pop_municipal_subprov_areas.xlsx
+++ b/import/pop_municipal_subprov_areas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0E353-EF25-CB48-85CE-D879933D66BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7997E579-45FE-1047-BD96-A069B87B45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8880" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
+    <workbookView xWindow="-4000" yWindow="-28300" windowWidth="46320" windowHeight="28300" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">     Unincorporated Areas (Comox)</t>
   </si>
   <si>
-    <t>Population2023</t>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -1763,12 +1763,13 @@
   <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">

--- a/import/pop_municipal_subprov_areas.xlsx
+++ b/import/pop_municipal_subprov_areas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7997E579-45FE-1047-BD96-A069B87B45AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C0AA2E-65E5-7547-AD73-4000A4712E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4000" yWindow="-28300" windowWidth="46320" windowHeight="28300" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
+    <workbookView xWindow="-8880" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="422">
   <si>
     <t>SGC</t>
   </si>
@@ -1158,18 +1158,6 @@
   </si>
   <si>
     <t>31999</t>
-  </si>
-  <si>
-    <t>57000</t>
-  </si>
-  <si>
-    <t>Stikine</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>57999</t>
   </si>
   <si>
     <t>24034</t>
@@ -1760,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C96113E-9C2F-3544-B8E2-277772FA30C5}">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -2749,7 +2737,7 @@
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>16</v>
@@ -2760,10 +2748,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>8</v>
@@ -2774,10 +2762,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>21</v>
@@ -2788,10 +2776,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>21</v>
@@ -2802,10 +2790,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>21</v>
@@ -2816,10 +2804,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>21</v>
@@ -2830,10 +2818,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>16</v>
@@ -4724,293 +4712,259 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>376</v>
+        <v>5</v>
       </c>
       <c r="D226" s="7">
-        <v>779</v>
+        <v>34104</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D227" s="11">
-        <v>779</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="8"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="12"/>
+      <c r="A228" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="11">
+        <v>11045</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D229" s="7">
-        <v>34104</v>
+      <c r="A229" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D229" s="11">
+        <v>806</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>392</v>
+        <v>15</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D230" s="11">
-        <v>5110</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B231" s="9" t="s">
+      <c r="A231" s="8"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="11"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C231" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="11">
-        <v>11045</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
+      <c r="B232" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D232" s="11">
-        <v>806</v>
+      <c r="C232" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="7">
+        <v>156094</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B233" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="C233" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D233" s="11">
-        <v>17143</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="8"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="11"/>
+      <c r="A234" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" s="11">
+        <v>1898</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="7">
-        <v>156094</v>
+      <c r="A235" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" s="12">
+        <v>1044</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C236" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D236" s="11">
-        <v>1851</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C237" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D237" s="11">
-        <v>1898</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D238" s="12">
-        <v>1044</v>
+      <c r="D238" s="11">
+        <v>727</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D239" s="11">
-        <v>2571</v>
+        <v>106974</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="11">
-        <v>2604</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D241" s="11">
-        <v>727</v>
+      <c r="D241" s="12">
+        <v>226</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="11">
-        <v>106974</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D243" s="11">
-        <v>2381</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>417</v>
+        <v>15</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D244" s="12">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="11">
-        <v>7415</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D246" s="11">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C247" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D247" s="11">
+      <c r="D244" s="11">
         <v>26870</v>
       </c>
     </row>

--- a/import/pop_municipal_subprov_areas.xlsx
+++ b/import/pop_municipal_subprov_areas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Documents/BCWC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\EPD\EPIB\_SECTION CIRCULAR COMMUNITIES\MSW-(25000-10)-2025-Waste Reporting CHEF\_CHEF Development\2025-Communication with Digital Services-finalizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C0AA2E-65E5-7547-AD73-4000A4712E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E95EC1-C05E-4831-9886-819321676B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8880" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="426">
   <si>
     <t>SGC</t>
   </si>
@@ -1160,6 +1160,18 @@
     <t>31999</t>
   </si>
   <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>Stikine</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>57999</t>
+  </si>
+  <si>
     <t>24034</t>
   </si>
   <si>
@@ -1301,14 +1313,17 @@
     <t xml:space="preserve">     Unincorporated Areas (Comox)</t>
   </si>
   <si>
-    <t>Population</t>
+    <t>population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1348,6 +1363,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1384,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1414,6 +1435,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,19 +1779,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C96113E-9C2F-3544-B8E2-277772FA30C5}">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1785,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="7">
-        <v>35891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1799,10 +1830,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="11">
-        <v>19496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1813,10 +1844,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1827,10 +1858,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="11">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1841,16 +1872,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="11">
-        <v>11408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1861,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>39370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -1875,10 +1906,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="11">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1889,10 +1920,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="11">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1903,10 +1934,10 @@
         <v>21</v>
       </c>
       <c r="D11" s="11">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1917,10 +1948,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="11">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1965,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1945,10 +1976,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="11">
-        <v>5622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1959,10 +1990,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="11">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1973,10 +2004,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="11">
-        <v>4543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
@@ -1987,16 +2018,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="11">
-        <v>19735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2007,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>453425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>460317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -2021,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="11">
-        <v>18369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2035,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="11">
-        <v>21403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2049,10 +2080,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="11">
-        <v>19017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
@@ -2063,10 +2094,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="11">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
@@ -2077,10 +2108,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="11">
-        <v>55069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
@@ -2091,10 +2122,10 @@
         <v>11</v>
       </c>
       <c r="D25" s="11">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>52</v>
       </c>
@@ -2105,10 +2136,10 @@
         <v>11</v>
       </c>
       <c r="D26" s="11">
-        <v>13228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
@@ -2119,10 +2150,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="11">
-        <v>18888</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>56</v>
       </c>
@@ -2133,10 +2164,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="11">
-        <v>125380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
@@ -2147,10 +2178,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="11">
-        <v>13151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -2161,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="D30" s="11">
-        <v>16795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>62</v>
       </c>
@@ -2175,10 +2206,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="11">
-        <v>100505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
@@ -2189,10 +2220,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="11">
-        <v>12584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>66</v>
       </c>
@@ -2203,16 +2234,16 @@
         <v>16</v>
       </c>
       <c r="D33" s="11">
-        <v>30847</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
@@ -2223,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>66291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>69</v>
       </c>
@@ -2237,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="D36" s="11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -2251,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="11">
-        <v>10070</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>73</v>
       </c>
@@ -2265,10 +2296,10 @@
         <v>11</v>
       </c>
       <c r="D38" s="11">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
@@ -2279,10 +2310,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="11">
-        <v>11422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
         <v>77</v>
       </c>
@@ -2293,16 +2324,16 @@
         <v>16</v>
       </c>
       <c r="D40" s="11">
-        <v>42561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
@@ -2313,10 +2344,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="7">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
         <v>80</v>
       </c>
@@ -2327,16 +2358,16 @@
         <v>16</v>
       </c>
       <c r="D43" s="11">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>81</v>
       </c>
@@ -2347,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>67129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68723</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>83</v>
       </c>
@@ -2361,10 +2392,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="11">
-        <v>9084</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
         <v>85</v>
       </c>
@@ -2375,10 +2406,10 @@
         <v>32</v>
       </c>
       <c r="D47" s="11">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
         <v>87</v>
       </c>
@@ -2389,10 +2420,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="11">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>89</v>
       </c>
@@ -2403,10 +2434,10 @@
         <v>21</v>
       </c>
       <c r="D49" s="11">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>91</v>
       </c>
@@ -2417,10 +2448,10 @@
         <v>8</v>
       </c>
       <c r="D50" s="11">
-        <v>11931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>93</v>
       </c>
@@ -2431,10 +2462,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="11">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>95</v>
       </c>
@@ -2445,10 +2476,10 @@
         <v>21</v>
       </c>
       <c r="D52" s="11">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>97</v>
       </c>
@@ -2459,10 +2490,10 @@
         <v>21</v>
       </c>
       <c r="D53" s="11">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>99</v>
       </c>
@@ -2473,10 +2504,10 @@
         <v>21</v>
       </c>
       <c r="D54" s="11">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>101</v>
       </c>
@@ -2487,16 +2518,16 @@
         <v>16</v>
       </c>
       <c r="D55" s="11">
-        <v>34862</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
@@ -2507,10 +2538,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="7">
-        <v>246789</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>251723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
         <v>104</v>
       </c>
@@ -2521,10 +2552,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="11">
-        <v>161166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>165200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
         <v>106</v>
       </c>
@@ -2535,10 +2566,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="11">
-        <v>17539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>108</v>
       </c>
@@ -2549,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D60" s="12">
-        <v>6139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
         <v>110</v>
       </c>
@@ -2563,10 +2594,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="11">
-        <v>39853</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
         <v>112</v>
       </c>
@@ -2577,16 +2608,16 @@
         <v>16</v>
       </c>
       <c r="D62" s="11">
-        <v>22092</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
@@ -2597,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="7">
-        <v>61505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>115</v>
       </c>
@@ -2611,10 +2642,10 @@
         <v>32</v>
       </c>
       <c r="D65" s="11">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>117</v>
       </c>
@@ -2625,10 +2656,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="11">
-        <v>9032</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>119</v>
       </c>
@@ -2639,10 +2670,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="11">
-        <v>20583</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>121</v>
       </c>
@@ -2653,10 +2684,10 @@
         <v>11</v>
       </c>
       <c r="D68" s="11">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>123</v>
       </c>
@@ -2667,16 +2698,16 @@
         <v>16</v>
       </c>
       <c r="D69" s="11">
-        <v>24718</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="13"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>124</v>
       </c>
@@ -2687,10 +2718,11 @@
         <v>5</v>
       </c>
       <c r="D71" s="7">
-        <v>129382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <f>79276+51465</f>
+        <v>130741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
         <v>126</v>
       </c>
@@ -2701,10 +2733,10 @@
         <v>32</v>
       </c>
       <c r="D72" s="12">
-        <v>15607</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15962</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
         <v>128</v>
       </c>
@@ -2715,10 +2747,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="12">
-        <v>31042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32049</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
         <v>130</v>
       </c>
@@ -2729,85 +2761,85 @@
         <v>21</v>
       </c>
       <c r="D74" s="12">
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="11">
-        <v>26252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="12">
-        <v>38259</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="12">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="12">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="12">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>21</v>
@@ -2816,27 +2848,27 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="11">
-        <v>11215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
         <v>133</v>
       </c>
@@ -2847,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="D83" s="7">
-        <v>94941</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>135</v>
       </c>
@@ -2861,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="D84" s="11">
-        <v>5475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>137</v>
       </c>
@@ -2875,10 +2907,10 @@
         <v>32</v>
       </c>
       <c r="D85" s="11">
-        <v>9662</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>139</v>
       </c>
@@ -2889,10 +2921,10 @@
         <v>32</v>
       </c>
       <c r="D86" s="11">
-        <v>3689</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>141</v>
       </c>
@@ -2903,10 +2935,10 @@
         <v>11</v>
       </c>
       <c r="D87" s="11">
-        <v>33873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>143</v>
       </c>
@@ -2917,16 +2949,16 @@
         <v>16</v>
       </c>
       <c r="D88" s="11">
-        <v>42242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>144</v>
       </c>
@@ -2937,10 +2969,10 @@
         <v>5</v>
       </c>
       <c r="D90" s="7">
-        <v>70741</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>146</v>
       </c>
@@ -2951,10 +2983,10 @@
         <v>21</v>
       </c>
       <c r="D91" s="11">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>148</v>
       </c>
@@ -2965,10 +2997,10 @@
         <v>8</v>
       </c>
       <c r="D92" s="11">
-        <v>22053</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22733</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>150</v>
       </c>
@@ -2979,10 +3011,10 @@
         <v>11</v>
       </c>
       <c r="D93" s="11">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>152</v>
       </c>
@@ -2993,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="D94" s="11">
-        <v>6780</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>154</v>
       </c>
@@ -3007,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D95" s="11">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>156</v>
       </c>
@@ -3021,10 +3053,10 @@
         <v>8</v>
       </c>
       <c r="D96" s="11">
-        <v>8804</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="8" t="s">
         <v>158</v>
       </c>
@@ -3035,10 +3067,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="11">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
         <v>160</v>
       </c>
@@ -3049,10 +3081,10 @@
         <v>11</v>
       </c>
       <c r="D98" s="11">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
         <v>162</v>
       </c>
@@ -3063,16 +3095,16 @@
         <v>16</v>
       </c>
       <c r="D99" s="11">
-        <v>19250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>163</v>
       </c>
@@ -3083,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="D101" s="7">
-        <v>353301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>362635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
         <v>165</v>
       </c>
@@ -3097,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="D102" s="11">
-        <v>166842</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>175087</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
         <v>167</v>
       </c>
@@ -3111,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="11">
-        <v>101862</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
         <v>169</v>
       </c>
@@ -3125,10 +3157,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="11">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>171</v>
       </c>
@@ -3139,10 +3171,10 @@
         <v>11</v>
       </c>
       <c r="D105" s="11">
-        <v>7159</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
         <v>173</v>
       </c>
@@ -3153,10 +3185,10 @@
         <v>11</v>
       </c>
       <c r="D106" s="11">
-        <v>7006</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="8" t="s">
         <v>175</v>
       </c>
@@ -3167,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="D107" s="11">
-        <v>45556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="8" t="s">
         <v>177</v>
       </c>
@@ -3181,16 +3213,16 @@
         <v>16</v>
       </c>
       <c r="D108" s="11">
-        <v>22847</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="4" t="s">
         <v>178</v>
       </c>
@@ -3201,10 +3233,10 @@
         <v>5</v>
       </c>
       <c r="D110" s="7">
-        <v>104141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
@@ -3215,10 +3247,10 @@
         <v>11</v>
       </c>
       <c r="D111" s="11">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="8" t="s">
         <v>182</v>
       </c>
@@ -3229,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="D112" s="11">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="8" t="s">
         <v>184</v>
       </c>
@@ -3243,10 +3275,10 @@
         <v>8</v>
       </c>
       <c r="D113" s="11">
-        <v>82637</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84905</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="8" t="s">
         <v>186</v>
       </c>
@@ -3257,10 +3289,10 @@
         <v>21</v>
       </c>
       <c r="D114" s="11">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="8" t="s">
         <v>188</v>
       </c>
@@ -3271,16 +3303,16 @@
         <v>16</v>
       </c>
       <c r="D115" s="11">
-        <v>16359</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>189</v>
       </c>
@@ -3291,10 +3323,10 @@
         <v>5</v>
       </c>
       <c r="D117" s="7">
-        <v>40558</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41438</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="8" t="s">
         <v>191</v>
       </c>
@@ -3305,10 +3337,10 @@
         <v>21</v>
       </c>
       <c r="D118" s="11">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="8" t="s">
         <v>193</v>
       </c>
@@ -3319,10 +3351,10 @@
         <v>11</v>
       </c>
       <c r="D119" s="11">
-        <v>8864</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="8" t="s">
         <v>195</v>
       </c>
@@ -3333,10 +3365,10 @@
         <v>11</v>
       </c>
       <c r="D120" s="11">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="8" t="s">
         <v>197</v>
       </c>
@@ -3347,10 +3379,10 @@
         <v>11</v>
       </c>
       <c r="D121" s="11">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="8" t="s">
         <v>199</v>
       </c>
@@ -3361,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="D122" s="11">
-        <v>12959</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="8" t="s">
         <v>201</v>
       </c>
@@ -3375,16 +3407,16 @@
         <v>16</v>
       </c>
       <c r="D123" s="11">
-        <v>17232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>202</v>
       </c>
@@ -3395,10 +3427,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="7">
-        <v>35189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="8" t="s">
         <v>204</v>
       </c>
@@ -3409,10 +3441,10 @@
         <v>21</v>
       </c>
       <c r="D126" s="11">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="8" t="s">
         <v>206</v>
       </c>
@@ -3423,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="D127" s="11">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="8" t="s">
         <v>208</v>
       </c>
@@ -3437,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="D128" s="11">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="8" t="s">
         <v>210</v>
       </c>
@@ -3451,10 +3483,10 @@
         <v>21</v>
       </c>
       <c r="D129" s="11">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="8" t="s">
         <v>212</v>
       </c>
@@ -3468,7 +3500,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="8" t="s">
         <v>214</v>
       </c>
@@ -3479,10 +3511,10 @@
         <v>8</v>
       </c>
       <c r="D131" s="11">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="8" t="s">
         <v>216</v>
       </c>
@@ -3493,10 +3525,10 @@
         <v>8</v>
       </c>
       <c r="D132" s="11">
-        <v>8286</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
         <v>218</v>
       </c>
@@ -3507,10 +3539,10 @@
         <v>21</v>
       </c>
       <c r="D133" s="11">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
         <v>220</v>
       </c>
@@ -3521,16 +3553,16 @@
         <v>16</v>
       </c>
       <c r="D134" s="11">
-        <v>11937</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="4" t="s">
         <v>221</v>
       </c>
@@ -3541,10 +3573,10 @@
         <v>5</v>
       </c>
       <c r="D136" s="7">
-        <v>2971064</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3108926</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
         <v>223</v>
       </c>
@@ -3555,10 +3587,10 @@
         <v>21</v>
       </c>
       <c r="D137" s="11">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
         <v>225</v>
       </c>
@@ -3569,10 +3601,10 @@
         <v>21</v>
       </c>
       <c r="D138" s="11">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
         <v>227</v>
       </c>
@@ -3583,10 +3615,10 @@
         <v>229</v>
       </c>
       <c r="D139" s="11">
-        <v>4506</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
         <v>230</v>
       </c>
@@ -3597,10 +3629,10 @@
         <v>8</v>
       </c>
       <c r="D140" s="11">
-        <v>283593</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>298986</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
         <v>232</v>
       </c>
@@ -3611,10 +3643,10 @@
         <v>8</v>
       </c>
       <c r="D141" s="11">
-        <v>166584</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>174248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
         <v>234</v>
       </c>
@@ -3625,10 +3657,10 @@
         <v>8</v>
       </c>
       <c r="D142" s="11">
-        <v>120049</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="8" t="s">
         <v>236</v>
       </c>
@@ -3639,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="D143" s="11">
-        <v>33634</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="8" t="s">
         <v>238</v>
       </c>
@@ -3653,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D144" s="11">
-        <v>154099</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="8" t="s">
         <v>240</v>
       </c>
@@ -3667,10 +3699,10 @@
         <v>21</v>
       </c>
       <c r="D145" s="11">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="8" t="s">
         <v>242</v>
       </c>
@@ -3681,10 +3713,10 @@
         <v>8</v>
       </c>
       <c r="D146" s="11">
-        <v>102414</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="8" t="s">
         <v>244</v>
       </c>
@@ -3695,10 +3727,10 @@
         <v>8</v>
       </c>
       <c r="D147" s="11">
-        <v>88408</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92433</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="8" t="s">
         <v>246</v>
       </c>
@@ -3709,10 +3741,10 @@
         <v>8</v>
       </c>
       <c r="D148" s="11">
-        <v>64739</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67308</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="8" t="s">
         <v>248</v>
       </c>
@@ -3723,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="D149" s="11">
-        <v>96857</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99063</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="8" t="s">
         <v>250</v>
       </c>
@@ -3737,10 +3769,10 @@
         <v>8</v>
       </c>
       <c r="D150" s="11">
-        <v>20939</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="8" t="s">
         <v>252</v>
       </c>
@@ -3751,10 +3783,10 @@
         <v>8</v>
       </c>
       <c r="D151" s="11">
-        <v>66974</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69306</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="8" t="s">
         <v>254</v>
       </c>
@@ -3765,10 +3797,10 @@
         <v>8</v>
       </c>
       <c r="D152" s="11">
-        <v>37676</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="8" t="s">
         <v>256</v>
       </c>
@@ -3779,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D153" s="11">
-        <v>235093</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>242966</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="8" t="s">
         <v>258</v>
       </c>
@@ -3793,10 +3825,10 @@
         <v>8</v>
       </c>
       <c r="D154" s="11">
-        <v>653039</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>700459</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="8" t="s">
         <v>260</v>
       </c>
@@ -3807,10 +3839,10 @@
         <v>8</v>
       </c>
       <c r="D155" s="11">
-        <v>732581</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>756008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="8" t="s">
         <v>262</v>
       </c>
@@ -3821,10 +3853,10 @@
         <v>11</v>
       </c>
       <c r="D156" s="11">
-        <v>47396</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48880</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="8" t="s">
         <v>264</v>
       </c>
@@ -3835,10 +3867,10 @@
         <v>8</v>
       </c>
       <c r="D157" s="11">
-        <v>24292</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
         <v>266</v>
       </c>
@@ -3849,16 +3881,16 @@
         <v>16</v>
       </c>
       <c r="D158" s="11">
-        <v>33400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="4" t="s">
         <v>267</v>
       </c>
@@ -3869,10 +3901,10 @@
         <v>5</v>
       </c>
       <c r="D160" s="7">
-        <v>11425</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11411</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="8" t="s">
         <v>269</v>
       </c>
@@ -3883,10 +3915,10 @@
         <v>21</v>
       </c>
       <c r="D161" s="11">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="8" t="s">
         <v>271</v>
       </c>
@@ -3897,10 +3929,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="11">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="8" t="s">
         <v>273</v>
       </c>
@@ -3911,10 +3943,10 @@
         <v>11</v>
       </c>
       <c r="D163" s="11">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
         <v>275</v>
       </c>
@@ -3925,10 +3957,10 @@
         <v>32</v>
       </c>
       <c r="D164" s="11">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
         <v>277</v>
       </c>
@@ -3939,16 +3971,16 @@
         <v>16</v>
       </c>
       <c r="D165" s="11">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
         <v>278</v>
       </c>
@@ -3959,10 +3991,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="7">
-        <v>183039</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>186121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
         <v>280</v>
       </c>
@@ -3973,10 +4005,10 @@
         <v>11</v>
       </c>
       <c r="D168" s="11">
-        <v>4197</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
         <v>282</v>
       </c>
@@ -3987,10 +4019,10 @@
         <v>8</v>
       </c>
       <c r="D169" s="11">
-        <v>108277</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="8" t="s">
         <v>284</v>
       </c>
@@ -4001,10 +4033,10 @@
         <v>8</v>
       </c>
       <c r="D170" s="11">
-        <v>14497</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="8" t="s">
         <v>286</v>
       </c>
@@ -4015,10 +4047,10 @@
         <v>32</v>
       </c>
       <c r="D171" s="11">
-        <v>9599</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="8" t="s">
         <v>288</v>
       </c>
@@ -4029,16 +4061,16 @@
         <v>16</v>
       </c>
       <c r="D172" s="11">
-        <v>46469</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46846</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="4" t="s">
         <v>289</v>
       </c>
@@ -4049,10 +4081,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="7">
-        <v>19133</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19074</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="8" t="s">
         <v>291</v>
       </c>
@@ -4063,10 +4095,10 @@
         <v>21</v>
       </c>
       <c r="D175" s="11">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="8" t="s">
         <v>293</v>
       </c>
@@ -4077,10 +4109,10 @@
         <v>21</v>
       </c>
       <c r="D176" s="11">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="8" t="s">
         <v>295</v>
       </c>
@@ -4091,10 +4123,10 @@
         <v>21</v>
       </c>
       <c r="D177" s="11">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="8" t="s">
         <v>297</v>
       </c>
@@ -4105,10 +4137,10 @@
         <v>11</v>
       </c>
       <c r="D178" s="11">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="8" t="s">
         <v>299</v>
       </c>
@@ -4119,10 +4151,10 @@
         <v>8</v>
       </c>
       <c r="D179" s="11">
-        <v>12883</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12915</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="8" t="s">
         <v>301</v>
       </c>
@@ -4133,16 +4165,16 @@
         <v>16</v>
       </c>
       <c r="D180" s="11">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="4" t="s">
         <v>302</v>
       </c>
@@ -4153,10 +4185,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="7">
-        <v>98529</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99800</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="8" t="s">
         <v>304</v>
       </c>
@@ -4167,10 +4199,10 @@
         <v>8</v>
       </c>
       <c r="D183" s="11">
-        <v>5711</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="8" t="s">
         <v>306</v>
       </c>
@@ -4181,10 +4213,10 @@
         <v>11</v>
       </c>
       <c r="D184" s="11">
-        <v>11552</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11553</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="8" t="s">
         <v>308</v>
       </c>
@@ -4195,10 +4227,10 @@
         <v>8</v>
       </c>
       <c r="D185" s="11">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="8" t="s">
         <v>310</v>
       </c>
@@ -4209,10 +4241,10 @@
         <v>21</v>
       </c>
       <c r="D186" s="11">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="8" t="s">
         <v>312</v>
       </c>
@@ -4223,10 +4255,10 @@
         <v>11</v>
       </c>
       <c r="D187" s="11">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
         <v>314</v>
       </c>
@@ -4237,10 +4269,10 @@
         <v>8</v>
       </c>
       <c r="D188" s="11">
-        <v>48087</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49167</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
         <v>316</v>
       </c>
@@ -4251,16 +4283,16 @@
         <v>16</v>
       </c>
       <c r="D189" s="11">
-        <v>21909</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22009</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
       <c r="D190" s="13"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
         <v>317</v>
       </c>
@@ -4271,10 +4303,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="7">
-        <v>4632</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
         <v>319</v>
       </c>
@@ -4285,10 +4317,10 @@
         <v>321</v>
       </c>
       <c r="D192" s="11">
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
         <v>322</v>
       </c>
@@ -4299,16 +4331,16 @@
         <v>16</v>
       </c>
       <c r="D193" s="11">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
       <c r="D194" s="7"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="4" t="s">
         <v>323</v>
       </c>
@@ -4319,10 +4351,10 @@
         <v>5</v>
       </c>
       <c r="D195" s="7">
-        <v>94533</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93912</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="8" t="s">
         <v>325</v>
       </c>
@@ -4333,10 +4365,10 @@
         <v>21</v>
       </c>
       <c r="D196" s="11">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="8" t="s">
         <v>327</v>
       </c>
@@ -4347,10 +4379,10 @@
         <v>32</v>
       </c>
       <c r="D197" s="11">
-        <v>5303</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="8" t="s">
         <v>329</v>
       </c>
@@ -4361,10 +4393,10 @@
         <v>32</v>
       </c>
       <c r="D198" s="11">
-        <v>5763</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="8" t="s">
         <v>331</v>
       </c>
@@ -4375,10 +4407,10 @@
         <v>8</v>
       </c>
       <c r="D199" s="11">
-        <v>38651</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38665</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="8" t="s">
         <v>333</v>
       </c>
@@ -4389,10 +4421,10 @@
         <v>32</v>
       </c>
       <c r="D200" s="11">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="8" t="s">
         <v>335</v>
       </c>
@@ -4403,10 +4435,10 @@
         <v>11</v>
       </c>
       <c r="D201" s="11">
-        <v>12620</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12492</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="8" t="s">
         <v>337</v>
       </c>
@@ -4417,16 +4449,16 @@
         <v>16</v>
       </c>
       <c r="D202" s="11">
-        <v>27425</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26728</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
       <c r="D203" s="7"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="4" t="s">
         <v>338</v>
       </c>
@@ -4437,10 +4469,10 @@
         <v>5</v>
       </c>
       <c r="D204" s="7">
-        <v>65487</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67374</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="8" t="s">
         <v>340</v>
       </c>
@@ -4451,10 +4483,10 @@
         <v>11</v>
       </c>
       <c r="D205" s="11">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="8" t="s">
         <v>342</v>
       </c>
@@ -4465,10 +4497,10 @@
         <v>8</v>
       </c>
       <c r="D206" s="11">
-        <v>13013</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="8" t="s">
         <v>344</v>
       </c>
@@ -4479,10 +4511,10 @@
         <v>8</v>
       </c>
       <c r="D207" s="11">
-        <v>23661</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24273</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="8" t="s">
         <v>346</v>
       </c>
@@ -4493,10 +4525,10 @@
         <v>11</v>
       </c>
       <c r="D208" s="11">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="8" t="s">
         <v>348</v>
       </c>
@@ -4507,10 +4539,10 @@
         <v>21</v>
       </c>
       <c r="D209" s="11">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="8" t="s">
         <v>350</v>
       </c>
@@ -4521,10 +4553,10 @@
         <v>11</v>
       </c>
       <c r="D210" s="11">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="8" t="s">
         <v>352</v>
       </c>
@@ -4535,10 +4567,10 @@
         <v>11</v>
       </c>
       <c r="D211" s="11">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="8" t="s">
         <v>354</v>
       </c>
@@ -4549,16 +4581,16 @@
         <v>16</v>
       </c>
       <c r="D212" s="11">
-        <v>20653</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21814</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
       <c r="D213" s="7"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="4" t="s">
         <v>355</v>
       </c>
@@ -4569,10 +4601,10 @@
         <v>5</v>
       </c>
       <c r="D214" s="7">
-        <v>22768</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23056</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="8" t="s">
         <v>357</v>
       </c>
@@ -4583,10 +4615,10 @@
         <v>8</v>
       </c>
       <c r="D215" s="11">
-        <v>14776</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14937</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="8" t="s">
         <v>359</v>
       </c>
@@ -4600,7 +4632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="8" t="s">
         <v>362</v>
       </c>
@@ -4611,16 +4643,16 @@
         <v>16</v>
       </c>
       <c r="D217" s="11">
-        <v>7971</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
       <c r="D218" s="7"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="4" t="s">
         <v>363</v>
       </c>
@@ -4631,10 +4663,10 @@
         <v>5</v>
       </c>
       <c r="D219" s="7">
-        <v>54923</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="8" t="s">
         <v>365</v>
       </c>
@@ -4645,10 +4677,10 @@
         <v>11</v>
       </c>
       <c r="D220" s="11">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="8" t="s">
         <v>367</v>
       </c>
@@ -4659,10 +4691,10 @@
         <v>21</v>
       </c>
       <c r="D221" s="11">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="8" t="s">
         <v>369</v>
       </c>
@@ -4673,10 +4705,10 @@
         <v>11</v>
       </c>
       <c r="D222" s="11">
-        <v>25581</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28056</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="8" t="s">
         <v>371</v>
       </c>
@@ -4687,10 +4719,10 @@
         <v>11</v>
       </c>
       <c r="D223" s="11">
-        <v>16063</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="8" t="s">
         <v>373</v>
       </c>
@@ -4701,272 +4733,357 @@
         <v>16</v>
       </c>
       <c r="D224" s="11">
-        <v>7387</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
       <c r="D225" s="7"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C226" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D226" s="7">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="11">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="8"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="12"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="7">
-        <v>34104</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C227" s="10" t="s">
+      <c r="D229" s="7">
+        <v>34208</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C230" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D227" s="11">
-        <v>5110</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C228" s="10" t="s">
+      <c r="D230" s="11">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C231" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="11">
-        <v>11045</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C229" s="10" t="s">
+      <c r="D231" s="11">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C232" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D229" s="11">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B230" s="9" t="s">
+      <c r="D232" s="11">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="C233" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="11">
-        <v>17143</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="8"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="11"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C232" s="6" t="s">
+      <c r="D233" s="11">
+        <v>16827</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="8"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="11"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C235" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="7">
-        <v>156094</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233" s="11">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" s="11">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+      <c r="D235" s="7">
+        <v>158876</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B236" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D235" s="12">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="C236" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D236" s="11">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C237" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D237" s="11">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D238" s="11">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="12">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="11">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B240" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="11">
-        <v>106974</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="11">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D241" s="12">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D241" s="11">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="11">
+        <v>109633</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B243" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C242" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="11">
-        <v>7415</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="8" t="s">
+      <c r="C243" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" s="11">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B244" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D243" s="11">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="8" t="s">
+      <c r="D244" s="12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B245" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="11">
+        <v>7274</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="11">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C247" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D244" s="11">
-        <v>26870</v>
-      </c>
+      <c r="D247" s="11">
+        <v>27344</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D249" s="15"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D250" s="16"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D251" s="16"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D252" s="17"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D253" s="18"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D254" s="18"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D256" s="15"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D257" s="16"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D258" s="17"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D259" s="17"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D260" s="18"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D261" s="18"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D262" s="18"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D263" s="18"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D264" s="18"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D265" s="18"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D270" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import/pop_municipal_subprov_areas.xlsx
+++ b/import/pop_municipal_subprov_areas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSAHELI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C870E4C-1F14-C142-9898-7AF8704A39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8EEAA-EEF2-485A-AED6-602F2E35A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="740" windowWidth="38400" windowHeight="21600" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="424">
   <si>
     <t>SGC</t>
   </si>
@@ -1302,6 +1305,12 @@
   </si>
   <si>
     <t>population</t>
+  </si>
+  <si>
+    <t>Previous Year's Per Captia Disposal (kg/capita)</t>
+  </si>
+  <si>
+    <t>Previous Year's Total Disposal (Tonnes)</t>
   </si>
 </sst>
 </file>
@@ -1393,17 +1402,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1433,6 +1433,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,3279 +1775,3883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C96113E-9C2F-3544-B8E2-277772FA30C5}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>36222</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="18">
+        <v>541.08907099640032</v>
+      </c>
+      <c r="F2" s="4">
+        <v>21195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>19685</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>2767</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>2413</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>11357</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>39417</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="18">
+        <v>785.53619507239011</v>
+      </c>
+      <c r="F8" s="4">
+        <v>30926.560000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>2016</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>1281</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>1020</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>336</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>3182</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>5661</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>1552</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>4564</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>19805</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>460317</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="E19" s="18">
+        <v>407.04857473672598</v>
+      </c>
+      <c r="F19" s="4">
+        <v>184566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>18150</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>22151</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>19302</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>2618</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>58320</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>5331</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>13340</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>18813</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>125436</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>13288</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>17128</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>102856</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>12619</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>30965</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>66801</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="E35" s="18">
+        <v>574.86898674028157</v>
+      </c>
+      <c r="F35" s="4">
+        <v>38108.639999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>2033</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>10236</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>231</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>11369</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>42932</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>4022</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="E42" s="18">
+        <v>427.01298701298703</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <v>4022</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>68723</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="E45" s="18">
+        <v>443.84692159871292</v>
+      </c>
+      <c r="F45" s="4">
+        <v>29795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>9227</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>6184</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>1148</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="8">
         <v>1748</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="8">
         <v>12346</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="8">
         <v>529</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="8">
         <v>1234</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="8">
         <v>197</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="E53" s="18"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="8">
         <v>416</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="E54" s="18"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="8">
         <v>35694</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="E55" s="18"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="4">
         <v>251723</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="E57" s="18">
+        <v>593.44217124750298</v>
+      </c>
+      <c r="F57" s="4">
+        <v>146455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="8">
         <v>165200</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="E58" s="18"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>17497</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="E59" s="18"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="9">
         <v>6200</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="E60" s="18"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="8">
         <v>40093</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="E61" s="18"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="8">
         <v>22733</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="E62" s="18"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="4">
         <v>62401</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="E64" s="18">
+        <v>651.36167791236483</v>
+      </c>
+      <c r="F64" s="4">
+        <v>40062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="8">
         <v>4411</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="E65" s="18"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="8">
         <v>9171</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="18"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="8">
         <v>20613</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="E67" s="18"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="8">
         <v>2841</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="E68" s="18"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="8">
         <v>25365</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="13"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="E69" s="18"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="4">
         <f>79276+51465</f>
         <v>130741</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+      <c r="E71" s="18">
+        <v>494.5819356633844</v>
+      </c>
+      <c r="F71" s="4">
+        <v>63990</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="9">
         <v>15962</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="E72" s="18"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="9">
         <v>32049</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+      <c r="E73" s="18"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="9">
         <v>4962</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="E74" s="18"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="8">
         <v>26303</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+      <c r="E75" s="18"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="9">
         <v>38028</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="E76" s="18"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="9">
         <v>1318</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+      <c r="E77" s="18"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="9">
         <v>363</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="E78" s="18"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="9">
         <v>378</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+      <c r="E79" s="18"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="8">
         <v>135</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="E80" s="18"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="8">
         <v>11243</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="E81" s="18"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="4">
         <v>95264</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+      <c r="E83" s="18">
+        <v>447.16455482878843</v>
+      </c>
+      <c r="F83" s="4">
+        <v>42454.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="8">
         <v>5669</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="E84" s="18"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="8">
         <v>9903</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="E85" s="18"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="8">
         <v>3717</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="E86" s="18"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="8">
         <v>34495</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="E87" s="18"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="8">
         <v>41480</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="E88" s="18"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="4">
         <v>72534</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="E90" s="18">
+        <v>600.91741364885866</v>
+      </c>
+      <c r="F90" s="4">
+        <v>50278.76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="8">
         <v>886</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+      <c r="E91" s="18"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="8">
         <v>22733</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
+      <c r="E92" s="18"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="8">
         <v>2933</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
+      <c r="E93" s="18"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="8">
         <v>6972</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
+      <c r="E94" s="18"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="8">
         <v>4312</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
+      <c r="E95" s="18"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="8">
         <v>9018</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
+      <c r="E96" s="18"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="8">
         <v>1485</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
+      <c r="E97" s="18"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="8">
         <v>4423</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
+      <c r="E98" s="18"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="8">
         <v>19772</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="E99" s="18"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="4">
         <v>362635</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+      <c r="E101" s="18">
+        <v>538.54079099691194</v>
+      </c>
+      <c r="F101" s="4">
+        <v>190267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="8">
         <v>175087</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+      <c r="E102" s="18"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="8">
         <v>102306</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
+      <c r="E103" s="18"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="8">
         <v>2051</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+      <c r="E104" s="18"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="8">
         <v>6842</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+      <c r="E105" s="18"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="8">
         <v>7115</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+      <c r="E106" s="18"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="8">
         <v>46226</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+      <c r="E107" s="18"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="8">
         <v>23008</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="E108" s="18"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="4">
         <v>106248</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
+      <c r="E110" s="18">
+        <v>700.05089253992185</v>
+      </c>
+      <c r="F110" s="4">
+        <v>72904</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="8">
         <v>3346</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
+      <c r="E111" s="18"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="8">
         <v>638</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
+      <c r="E112" s="18"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="8">
         <v>84905</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+      <c r="E113" s="18"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="8">
         <v>1106</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
+      <c r="E114" s="18"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="8">
         <v>16253</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="E115" s="18"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="4">
         <v>41438</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
+      <c r="E117" s="18">
+        <v>707.47817939740617</v>
+      </c>
+      <c r="F117" s="4">
+        <v>28693.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="8">
         <v>315</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
+      <c r="E118" s="18"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="8">
         <v>9168</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
+      <c r="E119" s="18"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="8">
         <v>658</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+      <c r="E120" s="18"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="8">
         <v>528</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+      <c r="E121" s="18"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="8">
         <v>13252</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
+      <c r="E122" s="18"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="8">
         <v>17517</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="7"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="E123" s="18"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="4">
         <v>35360</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
+      <c r="E125" s="18">
+        <v>459.83119724914036</v>
+      </c>
+      <c r="F125" s="4">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="8">
         <v>2065</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+      <c r="E126" s="18"/>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="8">
         <v>4295</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
+      <c r="E127" s="18"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="8">
         <v>730</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
+      <c r="E128" s="18"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="8">
         <v>675</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
+      <c r="E129" s="18"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="8">
         <v>1071</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
+      <c r="E130" s="18"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="8">
         <v>4347</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
+      <c r="E131" s="18"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="8">
         <v>8406</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+      <c r="E132" s="18"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="8">
         <v>1765</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
+      <c r="E133" s="18"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="8">
         <v>12006</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="E134" s="18"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="4">
         <v>3108926</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
+      <c r="E136" s="18">
+        <v>428.82384771973483</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1281423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="8">
         <v>2568</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
+      <c r="E137" s="18"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="8">
         <v>704</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
+      <c r="E138" s="18"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D139" s="8">
         <v>4677</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
+      <c r="E139" s="18"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="8">
         <v>298986</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
+      <c r="E140" s="18"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="8">
         <v>174248</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
+      <c r="E141" s="18"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="8">
         <v>125165</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+      <c r="E142" s="18"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="8">
         <v>35316</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
+      <c r="E143" s="18"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="8">
         <v>162269</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
+      <c r="E144" s="18"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="8">
         <v>1468</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
+      <c r="E145" s="18"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="8">
         <v>106489</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
+      <c r="E146" s="18"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="8">
         <v>92433</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
+      <c r="E147" s="18"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="8">
         <v>67308</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+      <c r="E148" s="18"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="8">
         <v>99063</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
+      <c r="E149" s="18"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="8">
         <v>21402</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
+      <c r="E150" s="18"/>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="8">
         <v>69306</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
+      <c r="E151" s="18"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="8">
         <v>38942</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="E152" s="18"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="8">
         <v>242966</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
+      <c r="E153" s="18"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="8">
         <v>700459</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
+      <c r="E154" s="18"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="8">
         <v>756008</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
+      <c r="E155" s="18"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="8">
         <v>48880</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
+      <c r="E156" s="18"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="8">
         <v>25129</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
+      <c r="E157" s="18"/>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="8">
         <v>35140</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="7"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="E158" s="18"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="4">
         <v>11411</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
+      <c r="E160" s="18">
+        <v>712.64770240700216</v>
+      </c>
+      <c r="F160" s="4">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A161" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="8">
         <v>499</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
+      <c r="E161" s="18"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A162" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="8">
         <v>810</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
+      <c r="E162" s="18"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A163" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="8">
         <v>4148</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
+      <c r="E163" s="18"/>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A164" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="8">
         <v>2384</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
+      <c r="E164" s="18"/>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A165" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D165" s="11">
+      <c r="D165" s="8">
         <v>3570</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="7"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="E165" s="18"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="4">
         <v>186121</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
+      <c r="E167" s="18">
+        <v>414.31061139975634</v>
+      </c>
+      <c r="F167" s="4">
+        <v>75835</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="8">
         <v>4210</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="8" t="s">
+      <c r="E168" s="18"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="8">
         <v>110707</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="8" t="s">
+      <c r="E169" s="18"/>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="8">
         <v>14995</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
+      <c r="E170" s="18"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="8">
         <v>9363</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
+      <c r="E171" s="18"/>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="8">
         <v>46846</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="7"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="E172" s="18"/>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="4">
         <v>19074</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
+      <c r="E174" s="18">
+        <v>682.57879057126434</v>
+      </c>
+      <c r="F174" s="4">
+        <v>13059.78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="8">
         <v>992</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="8" t="s">
+      <c r="E175" s="18"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D176" s="11">
+      <c r="D176" s="8">
         <v>918</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="8" t="s">
+      <c r="E176" s="18"/>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A177" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D177" s="11">
+      <c r="D177" s="8">
         <v>353</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="8" t="s">
+      <c r="E177" s="18"/>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A178" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="8">
         <v>446</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="8" t="s">
+      <c r="E178" s="18"/>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="11">
+      <c r="D179" s="8">
         <v>12915</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="8" t="s">
+      <c r="E179" s="18"/>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D180" s="11">
+      <c r="D180" s="8">
         <v>3450</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="7"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="E180" s="18"/>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="4">
         <v>99800</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="8" t="s">
+      <c r="E182" s="18">
+        <v>472.32794405707961</v>
+      </c>
+      <c r="F182" s="4">
+        <v>46538</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A183" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="11">
+      <c r="D183" s="8">
         <v>5767</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="8" t="s">
+      <c r="E183" s="18"/>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A184" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="11">
+      <c r="D184" s="8">
         <v>11553</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
+      <c r="E184" s="18"/>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A185" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="11">
+      <c r="D185" s="8">
         <v>3279</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="8" t="s">
+      <c r="E185" s="18"/>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A186" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D186" s="11">
+      <c r="D186" s="8">
         <v>2246</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="8" t="s">
+      <c r="E186" s="18"/>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A187" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="11">
+      <c r="D187" s="8">
         <v>5779</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="8" t="s">
+      <c r="E187" s="18"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A188" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D188" s="8">
         <v>49167</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="8" t="s">
+      <c r="E188" s="18"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A189" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D189" s="11">
+      <c r="D189" s="8">
         <v>22009</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="13"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="E189" s="18"/>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="7">
+      <c r="D191" s="4">
         <v>4641</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
+      <c r="E191" s="18">
+        <v>521.11730428173303</v>
+      </c>
+      <c r="F191" s="4">
+        <v>2056.85</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A192" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D192" s="11">
+      <c r="D192" s="8">
         <v>4090</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="8" t="s">
+      <c r="E192" s="18"/>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A193" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D193" s="11">
+      <c r="D193" s="8">
         <v>551</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="7"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="E193" s="18"/>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="7">
+      <c r="D195" s="4">
         <v>93912</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="8" t="s">
+      <c r="E195" s="18">
+        <v>549.62817217268048</v>
+      </c>
+      <c r="F195" s="4">
+        <v>51958</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A196" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D196" s="11">
+      <c r="D196" s="8">
         <v>1775</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="8" t="s">
+      <c r="E196" s="18"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A197" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="8">
         <v>5274</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="8" t="s">
+      <c r="E197" s="18"/>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A198" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D198" s="11">
+      <c r="D198" s="8">
         <v>5737</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="8" t="s">
+      <c r="E198" s="18"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A199" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D199" s="11">
+      <c r="D199" s="8">
         <v>38665</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="8" t="s">
+      <c r="E199" s="18"/>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A200" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D200" s="11">
+      <c r="D200" s="8">
         <v>3241</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
+      <c r="E200" s="18"/>
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A201" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="8">
         <v>12492</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="8" t="s">
+      <c r="E201" s="18"/>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A202" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="8">
         <v>26728</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="7"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="E202" s="18"/>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="7">
+      <c r="D204" s="4">
         <v>67374</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
+      <c r="E204" s="18">
+        <v>803.96109151434632</v>
+      </c>
+      <c r="F204" s="4">
+        <v>52649</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A205" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D205" s="11">
+      <c r="D205" s="8">
         <v>2509</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="8" t="s">
+      <c r="E205" s="18"/>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A206" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="11">
+      <c r="D206" s="8">
         <v>12775</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
+      <c r="E206" s="18"/>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A207" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="11">
+      <c r="D207" s="8">
         <v>24273</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
+      <c r="E207" s="18"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A208" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="11">
+      <c r="D208" s="8">
         <v>1030</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="8" t="s">
+      <c r="E208" s="18"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A209" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D209" s="11">
+      <c r="D209" s="8">
         <v>823</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
+      <c r="E209" s="18"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A210" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="8">
         <v>1431</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
+      <c r="E210" s="18"/>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A211" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="11">
+      <c r="D211" s="8">
         <v>2719</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
+      <c r="E211" s="18"/>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A212" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="8">
         <v>21814</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="7"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="E212" s="18"/>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="7">
+      <c r="D214" s="4">
         <v>23056</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
+      <c r="E214" s="18">
+        <v>467.89353478566409</v>
+      </c>
+      <c r="F214" s="4">
+        <v>10653</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A215" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D215" s="11">
+      <c r="D215" s="8">
         <v>14937</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+      <c r="E215" s="18"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A216" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D216" s="11">
+      <c r="D216" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
+      <c r="E216" s="18"/>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A217" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C217" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D217" s="11">
+      <c r="D217" s="8">
         <v>8098</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="7"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="E217" s="18"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D219" s="7">
+      <c r="D219" s="4">
         <v>56433</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+      <c r="E219" s="18">
+        <v>354.80779728041341</v>
+      </c>
+      <c r="F219" s="4">
+        <v>29250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A220" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="11">
+      <c r="D220" s="8">
         <v>2154</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+      <c r="E220" s="18"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A221" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D221" s="11">
+      <c r="D221" s="8">
         <v>3566</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+      <c r="E221" s="18"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A222" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="11">
+      <c r="D222" s="8">
         <v>28056</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+      <c r="E222" s="18"/>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A223" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D223" s="11">
+      <c r="D223" s="8">
         <v>15625</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
+      <c r="E223" s="18"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A224" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D224" s="11">
+      <c r="D224" s="8">
         <v>7032</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="7"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
+      <c r="E224" s="18"/>
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="4">
         <v>34208</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
+      <c r="E226" s="18">
+        <v>347.90640394088666</v>
+      </c>
+      <c r="F226" s="4">
+        <v>11865</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A227" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C227" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D227" s="11">
+      <c r="D227" s="8">
         <v>5093</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
+      <c r="E227" s="18"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A228" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="C228" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="11">
+      <c r="D228" s="8">
         <v>11492</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
+      <c r="E228" s="18"/>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A229" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C229" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D229" s="11">
+      <c r="D229" s="8">
         <v>796</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
+      <c r="E229" s="18"/>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A230" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="C230" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="11">
+      <c r="D230" s="8">
         <v>16827</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="8"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="11"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+      <c r="E230" s="18"/>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A231" s="5"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="7">
+      <c r="D232" s="4">
         <v>158876</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
+      <c r="E232" s="18">
+        <v>590.16361935756652</v>
+      </c>
+      <c r="F232" s="4">
+        <v>92121</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A233" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C233" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D233" s="11">
+      <c r="D233" s="8">
         <v>1737</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
+      <c r="E233" s="18"/>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A234" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C234" s="10" t="s">
+      <c r="C234" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="11">
+      <c r="D234" s="8">
         <v>1932</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+      <c r="E234" s="18"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A235" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="C235" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D235" s="12">
+      <c r="D235" s="9">
         <v>1063</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="8" t="s">
+      <c r="E235" s="18"/>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A236" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="C236" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D236" s="11">
+      <c r="D236" s="8">
         <v>2619</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+      <c r="E236" s="18"/>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A237" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="C237" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="11">
+      <c r="D237" s="8">
         <v>2491</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="8" t="s">
+      <c r="E237" s="18"/>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A238" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C238" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D238" s="11">
+      <c r="D238" s="8">
         <v>665</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="8" t="s">
+      <c r="E238" s="18"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A239" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C239" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="11">
+      <c r="D239" s="8">
         <v>109633</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
+      <c r="E239" s="18"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A240" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="C240" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D240" s="11">
+      <c r="D240" s="8">
         <v>2327</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="8" t="s">
+      <c r="E240" s="18"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A241" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C241" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D241" s="12">
+      <c r="D241" s="9">
         <v>230</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
+      <c r="E241" s="18"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A242" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="C242" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="8">
         <v>7274</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="8" t="s">
+      <c r="E242" s="18"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A243" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C243" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D243" s="11">
+      <c r="D243" s="8">
         <v>1561</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="8" t="s">
+      <c r="E243" s="18"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A244" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C244" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="8">
         <v>27344</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D246" s="15"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D247" s="16"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D248" s="16"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D249" s="17"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D250" s="18"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D251" s="18"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D253" s="15"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D254" s="16"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D255" s="17"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D256" s="17"/>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D257" s="18"/>
-    </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D258" s="18"/>
-    </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D259" s="18"/>
-    </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D260" s="18"/>
-    </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D261" s="18"/>
-    </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D262" s="18"/>
-    </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D267" s="17"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D246" s="12"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D247" s="13"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D248" s="13"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D249" s="14"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D250" s="15"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D251" s="15"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D253" s="12"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D254" s="13"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D255" s="14"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D256" s="14"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D257" s="15"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D258" s="15"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D259" s="15"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D260" s="15"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D261" s="15"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D262" s="15"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D267" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{5C96113E-9C2F-3544-B8E2-277772FA30C5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/import/pop_municipal_subprov_areas.xlsx
+++ b/import/pop_municipal_subprov_areas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSAHELI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhathal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8EEAA-EEF2-485A-AED6-602F2E35A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5328A13-6E76-5544-89A7-9DCBEBFF431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
+    <workbookView xWindow="4360" yWindow="680" windowWidth="30200" windowHeight="19760" xr2:uid="{E5C9A009-8C10-A94D-BB5A-8186802F6709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">     Unincorporated Areas (Comox)</t>
   </si>
   <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>Previous Year's Per Captia Disposal (kg/capita)</t>
-  </si>
-  <si>
-    <t>Previous Year's Total Disposal (Tonnes)</t>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>PreviousYearPerCaptiaDisposal</t>
+  </si>
+  <si>
+    <t>PreviousYearTotalDisposal</t>
   </si>
 </sst>
 </file>
@@ -1777,11 +1777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C96113E-9C2F-3544-B8E2-277772FA30C5}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H234" sqref="H234"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
@@ -1790,7 +1790,7 @@
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>21195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1902,7 +1902,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>30926.560000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -2074,7 +2074,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>184566</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="E24" s="18"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="E28" s="18"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="E29" s="18"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="E32" s="18"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -2326,7 +2326,7 @@
       <c r="E34" s="18"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>38108.639999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="E38" s="18"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="E39" s="18"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="E40" s="18"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2434,7 +2434,7 @@
       <c r="E41" s="18"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="E43" s="18"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -2478,7 +2478,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>29795</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>83</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="E46" s="18"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>85</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="E47" s="18"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="E48" s="18"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>89</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="E49" s="18"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>91</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="E50" s="18"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="E51" s="18"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>95</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="E52" s="18"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>97</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="E53" s="18"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>99</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="E54" s="18"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>101</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="E55" s="18"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -2666,7 +2666,7 @@
       <c r="E56" s="18"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>146455</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="E58" s="18"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>106</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="E59" s="18"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>108</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="E60" s="18"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>110</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="E61" s="18"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>112</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2774,7 +2774,7 @@
       <c r="E63" s="18"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>113</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>40062</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>115</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="E65" s="18"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>117</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="E66" s="18"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>119</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="E67" s="18"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>121</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="E68" s="18"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>123</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="E69" s="18"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
@@ -2882,7 +2882,7 @@
       <c r="E70" s="18"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>63990</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>126</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="E72" s="18"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>128</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="E73" s="18"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>130</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="E74" s="18"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>132</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="E75" s="18"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>374</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="E76" s="18"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>376</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="E77" s="18"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>378</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="E78" s="18"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>380</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="E79" s="18"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>382</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="E80" s="18"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>384</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="E81" s="18"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
@@ -3071,7 +3071,7 @@
       <c r="E82" s="18"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>133</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>42454.25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>135</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="E84" s="18"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>137</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="E85" s="18"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>139</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="E86" s="18"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>141</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="E87" s="18"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>143</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="E88" s="18"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
@@ -3179,7 +3179,7 @@
       <c r="E89" s="18"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>144</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>50278.76</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>146</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="E91" s="18"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>148</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="E92" s="18"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>150</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="E93" s="18"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>152</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="E94" s="18"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>154</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="E95" s="18"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>156</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="E96" s="18"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>158</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="E97" s="18"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>160</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="E98" s="18"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>162</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="E99" s="18"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
@@ -3351,7 +3351,7 @@
       <c r="E100" s="18"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>190267</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>165</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="E102" s="18"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>167</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="E103" s="18"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>169</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="E104" s="18"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>171</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="E105" s="18"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>173</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="E106" s="18"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>175</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="E107" s="18"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>177</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="E108" s="18"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
@@ -3491,7 +3491,7 @@
       <c r="E109" s="18"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>178</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>72904</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>180</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="E111" s="18"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>182</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="E112" s="18"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>184</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="E113" s="18"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>186</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="E114" s="18"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>188</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="E115" s="18"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -3599,7 +3599,7 @@
       <c r="E116" s="18"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>189</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>28693.9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>191</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="E118" s="18"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>193</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="E119" s="18"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>195</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="E120" s="18"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>197</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="E121" s="18"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>199</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="E122" s="18"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>201</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="E123" s="18"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
@@ -3723,7 +3723,7 @@
       <c r="E124" s="18"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>202</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>16181</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>204</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="E126" s="18"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>206</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="E127" s="18"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>208</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="E128" s="18"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>210</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="E129" s="18"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>212</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="E130" s="18"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>214</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="E131" s="18"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>216</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="E132" s="18"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>218</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="E133" s="18"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>220</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="E134" s="18"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -3895,7 +3895,7 @@
       <c r="E135" s="18"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>221</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>1281423</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>223</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="E137" s="18"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>225</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="E138" s="18"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>227</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="E139" s="18"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>230</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="E140" s="18"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>232</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="E141" s="18"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>234</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="E142" s="18"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>236</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="E143" s="18"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>238</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="E144" s="18"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>240</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="E145" s="18"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>242</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="E146" s="18"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>244</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="E147" s="18"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>246</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="E148" s="18"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>248</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="E149" s="18"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>250</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="E150" s="18"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>252</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="E151" s="18"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>254</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="E152" s="18"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>256</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="E153" s="18"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>258</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="E154" s="18"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>260</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="E155" s="18"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>262</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="E156" s="18"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>264</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="E157" s="18"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>266</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="E158" s="18"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
@@ -4275,7 +4275,7 @@
       <c r="E159" s="18"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>267</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>8142</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>269</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="E161" s="18"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>271</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="E162" s="18"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>273</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="E163" s="18"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>275</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="E164" s="18"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>277</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="E165" s="18"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
@@ -4383,7 +4383,7 @@
       <c r="E166" s="18"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>278</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>75835</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>280</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="E168" s="18"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>282</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="E169" s="18"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>284</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="E170" s="18"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>286</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="E171" s="18"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>288</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="E172" s="18"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
@@ -4491,7 +4491,7 @@
       <c r="E173" s="18"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>289</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>13059.78</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>291</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="E175" s="18"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>293</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="E176" s="18"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>295</v>
       </c>
@@ -4559,7 +4559,7 @@
       <c r="E177" s="18"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>297</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="E178" s="18"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>299</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="E179" s="18"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>301</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="E180" s="18"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
@@ -4615,7 +4615,7 @@
       <c r="E181" s="18"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>302</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>46538</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>304</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="E183" s="18"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>306</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="E184" s="18"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>308</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="E185" s="18"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>310</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="E186" s="18"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>312</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="E187" s="18"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>314</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="E188" s="18"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>316</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="E189" s="18"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="3"/>
@@ -4755,7 +4755,7 @@
       <c r="E190" s="18"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>317</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>2056.85</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>319</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="E192" s="18"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>322</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="E193" s="18"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
@@ -4815,7 +4815,7 @@
       <c r="E194" s="18"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>323</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>51958</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>325</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="E196" s="18"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>327</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="E197" s="18"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>329</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="E198" s="18"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>331</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="E199" s="18"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>333</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="E200" s="18"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>335</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="E201" s="18"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>337</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="E202" s="18"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="3"/>
@@ -4955,7 +4955,7 @@
       <c r="E203" s="18"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>338</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>52649</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>340</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="E205" s="18"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>342</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="E206" s="18"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>344</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="E207" s="18"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>346</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="E208" s="18"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>348</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="E209" s="18"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>350</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="E210" s="18"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>352</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="E211" s="18"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>354</v>
       </c>
@@ -5103,7 +5103,7 @@
       <c r="E212" s="18"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
@@ -5111,7 +5111,7 @@
       <c r="E213" s="18"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>355</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>10653</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>357</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="E215" s="18"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>359</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="E216" s="18"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>362</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="E217" s="18"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
@@ -5187,7 +5187,7 @@
       <c r="E218" s="18"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>363</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>365</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="E220" s="18"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>367</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="E221" s="18"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>369</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="E222" s="18"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>371</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="E223" s="18"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>373</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="E224" s="18"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
@@ -5295,7 +5295,7 @@
       <c r="E225" s="18"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>385</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>11865</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>387</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="E227" s="18"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>389</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="E228" s="18"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>391</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="E229" s="18"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>393</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="E230" s="18"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
@@ -5387,7 +5387,7 @@
       <c r="E231" s="18"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>394</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>92121</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>396</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="E233" s="18"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>398</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="E234" s="18"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>400</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="E235" s="18"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>402</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="E236" s="18"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>404</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="E237" s="18"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>406</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="E238" s="18"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>408</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="E239" s="18"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>410</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="E240" s="18"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>412</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="E241" s="18"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>414</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="E242" s="18"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>416</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="E243" s="18"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>418</v>
       </c>
@@ -5599,55 +5599,55 @@
       <c r="E244" s="18"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D246" s="12"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D247" s="13"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D248" s="13"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D249" s="14"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D250" s="15"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D251" s="15"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D253" s="12"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D254" s="13"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D255" s="14"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D256" s="14"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="15"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="15"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="15"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="15"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="15"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="15"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="14"/>
     </row>
   </sheetData>
